--- a/3)気温と電力/3-0)気温と電力_練習用.xlsx
+++ b/3)気温と電力/3-0)気温と電力_練習用.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0920334\Desktop\JNPC2302-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0920334\Downloads\JNPC2302-main\JNPC2302-main\3)気温と電力\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6185DFAC-5500-4C0A-BAC0-32FCDAC9E7EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27A970B-EE44-4D3F-AA7E-7CE097400829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1293,25 +1293,6 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>P10</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>E10</t>
     </r>
     <phoneticPr fontId="1"/>
@@ -1372,6 +1353,25 @@
     <rPh sb="0" eb="2">
       <t>ヨウビ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Q10</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1965,7 +1965,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F622B363-91C5-445B-98AF-E7AEC8FF4A4A}">
   <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -2045,7 +2047,7 @@
     </row>
     <row r="3" spans="1:20" s="18" customFormat="1" ht="36" x14ac:dyDescent="0.45">
       <c r="B3" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3" s="20"/>
       <c r="D3" s="20"/>
@@ -2138,7 +2140,7 @@
     </row>
     <row r="5" spans="1:20" s="4" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>12</v>
@@ -2186,10 +2188,10 @@
         <v>68</v>
       </c>
       <c r="S5" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="T5" s="41" t="s">
         <v>69</v>
-      </c>
-      <c r="T5" s="41" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="36" x14ac:dyDescent="0.45">
@@ -2289,7 +2291,7 @@
         <v>16</v>
       </c>
       <c r="L7" s="44" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M7" s="33" t="s">
         <v>37</v>
